--- a/data_collection/tests/dados16.xlsx
+++ b/data_collection/tests/dados16.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3074,13 +3074,84 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="0" t="inlineStr">
         <is>
           <t>Média</t>
         </is>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <f>AVERAGE(B2:B50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B54" s="0">
+        <f>AVERAGE(B2:B50)</f>
+        <v/>
+      </c>
+      <c r="C54" s="0">
+        <f>AVERAGE(C2:C50)</f>
+        <v/>
+      </c>
+      <c r="D54" s="0">
+        <f>AVERAGE(D2:D50)</f>
+        <v/>
+      </c>
+      <c r="E54" s="0">
+        <f>AVERAGE(E2:E50)</f>
+        <v/>
+      </c>
+      <c r="F54" s="0">
+        <f>AVERAGE(F2:F50)</f>
+        <v/>
+      </c>
+      <c r="G54" s="0">
+        <f>AVERAGE(G2:G50)</f>
+        <v/>
+      </c>
+      <c r="H54" s="0">
+        <f>AVERAGE(H2:H50)</f>
+        <v/>
+      </c>
+      <c r="I54" s="0">
+        <f>AVERAGE(I2:I50)</f>
+        <v/>
+      </c>
+      <c r="J54" s="0">
+        <f>AVERAGE(J2:J50)</f>
+        <v/>
+      </c>
+      <c r="K54" s="0">
+        <f>AVERAGE(K2:K50)</f>
+        <v/>
+      </c>
+      <c r="L54" s="0">
+        <f>AVERAGE(L2:L50)</f>
+        <v/>
+      </c>
+      <c r="M54" s="0">
+        <f>AVERAGE(M2:M50)</f>
+        <v/>
+      </c>
+      <c r="N54" s="0">
+        <f>AVERAGE(N2:N50)</f>
+        <v/>
+      </c>
+      <c r="O54" s="0">
+        <f>AVERAGE(O2:O50)</f>
+        <v/>
+      </c>
+      <c r="P54" s="0">
+        <f>AVERAGE(P2:P50)</f>
+        <v/>
+      </c>
+      <c r="Q54" s="0">
+        <f>AVERAGE(Q2:Q50)</f>
         <v/>
       </c>
     </row>
